--- a/IPEDS Data Specs.xlsx
+++ b/IPEDS Data Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/blumj_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C9208D3F-2C1B-452B-B9BC-0F14ED303144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98451C9-1F00-4AB6-8B4A-66B7CD7F1634}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{C9208D3F-2C1B-452B-B9BC-0F14ED303144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994409C0-79DC-4F69-BB12-06DA52723459}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="8" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="TuitionAndCosts" sheetId="6" r:id="rId7"/>
     <sheet name="IPEDSFormats" sheetId="7" r:id="rId8"/>
     <sheet name="GradRates" sheetId="9" r:id="rId9"/>
+    <sheet name="RegModel" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="270">
   <si>
     <t>Variables in Creation Order</t>
   </si>
@@ -770,6 +771,78 @@
   </si>
   <si>
     <t>Source Variables/Tables</t>
+  </si>
+  <si>
+    <t>UnitID--GradRates</t>
+  </si>
+  <si>
+    <t>Matching/Key variable, present in all data sets used</t>
+  </si>
+  <si>
+    <t>Rate--GradRates</t>
+  </si>
+  <si>
+    <t>Cohort--GradRates</t>
+  </si>
+  <si>
+    <t>Direct from Characteristics</t>
+  </si>
+  <si>
+    <t>Make sure format search is defined</t>
+  </si>
+  <si>
+    <t>Direct from Aid</t>
+  </si>
+  <si>
+    <t>Maybe we convert all of this to rates…</t>
+  </si>
+  <si>
+    <t>Direct from TuitionAndCosts</t>
+  </si>
+  <si>
+    <t>Look carefully at these…often they use the same value across district/in-state/out-of-state</t>
+  </si>
+  <si>
+    <t>Rate?</t>
+  </si>
+  <si>
+    <t>What happens with those that do not have on-campus housing?</t>
+  </si>
+  <si>
+    <t>What happens with those that do not have meal plans?</t>
+  </si>
+  <si>
+    <t>AvgSalary</t>
+  </si>
+  <si>
+    <t>Average Salary for 9-month faculty</t>
+  </si>
+  <si>
+    <t>sa09mot--Salaries, sa09mct--Salaries</t>
+  </si>
+  <si>
+    <t>StuFacRatio</t>
+  </si>
+  <si>
+    <t>Student to Faculty Ratio</t>
+  </si>
+  <si>
+    <t>One decimal place</t>
+  </si>
+  <si>
+    <t>sa09mct--Salaries, scfa2--Aid</t>
+  </si>
+  <si>
+    <t>Total undergraduates divided by number of instructors (9mo)</t>
+  </si>
+  <si>
+    <t>Total salary divided by number of instructors (9mo)</t>
+  </si>
+  <si>
+    <t>Any others you might construct?</t>
+  </si>
+  <si>
+    <t>Do these constructions lead you to leave others out?</t>
   </si>
 </sst>
 </file>
@@ -801,7 +874,7 @@
       <name val="Albany AMT"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,8 +899,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -865,11 +944,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -903,20 +1006,47 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,7 +1186,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1076,6 +1206,693 @@
     <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C9D938-FA11-44FE-B541-DF4841873256}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5">
+      <c r="A4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="24">
+        <v>8</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="24">
+        <v>8</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1105,15 +1922,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1372,13 +2189,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="29.1" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -1602,7 +2419,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B10" sqref="B10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -1616,14 +2433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1902,7 +2719,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B6" sqref="B6:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -1916,15 +2733,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2176,13 +2993,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="29.1" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2270,13 +3087,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="29.1" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -2364,13 +3181,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="29.1" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -2560,13 +3377,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="29.1" customHeight="1">
       <c r="A42" s="1" t="s">
@@ -2807,13 +3624,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" ht="29.1" customHeight="1">
       <c r="A58" s="1" t="s">
@@ -2969,13 +3786,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5" ht="29.1" customHeight="1">
       <c r="A69" s="1" t="s">
@@ -3131,13 +3948,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" ht="29.1" customHeight="1">
       <c r="A80" s="1" t="s">
@@ -3244,14 +4061,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3437,7 +4254,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -3451,15 +4268,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3655,13 +4472,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="29.1" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -3817,7 +4634,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B10" sqref="B10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -3831,15 +4648,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4121,13 +4938,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="29.1" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -4181,13 +4998,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="29.1" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -4275,7 +5092,7 @@
   </sheetPr>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
   <cols>
@@ -5727,13 +6544,13 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
@@ -5743,95 +6560,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>240</v>
       </c>
     </row>
